--- a/Indonesia_Cities_Format.xlsx
+++ b/Indonesia_Cities_Format.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\afza.azzindani\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F41C81-BC56-463C-88C4-8DE8F548A994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9EFE04-95D7-4572-9538-5F226F7AC035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{1338B2A5-7320-42A6-9602-EE1C254096CE}"/>
+    <workbookView xWindow="1245" yWindow="2445" windowWidth="21600" windowHeight="11385" xr2:uid="{1338B2A5-7320-42A6-9602-EE1C254096CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Map" sheetId="2" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Map!$A$1:$D$514</definedName>
     <definedName name="ColumnTitle1">" "</definedName>
@@ -1750,25 +1747,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Trucking_Vendor"/>
-      <sheetName val="Map"/>
-      <sheetName val="Province_Map"/>
-      <sheetName val="City_Map"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2072,7 +2050,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M33" sqref="M33"/>
+      <selection pane="bottomLeft" activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2106,7 +2084,7 @@
         <v>4</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2120,7 +2098,7 @@
         <v>5</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2134,7 +2112,7 @@
         <v>6</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2148,7 +2126,7 @@
         <v>7</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2162,7 +2140,7 @@
         <v>8</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2176,7 +2154,7 @@
         <v>9</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2190,7 +2168,7 @@
         <v>10</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2204,7 +2182,7 @@
         <v>11</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2218,7 +2196,7 @@
         <v>12</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2232,7 +2210,7 @@
         <v>13</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2246,7 +2224,7 @@
         <v>14</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2260,7 +2238,7 @@
         <v>15</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2274,7 +2252,7 @@
         <v>16</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -2288,7 +2266,7 @@
         <v>17</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -2302,7 +2280,7 @@
         <v>18</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -2316,7 +2294,7 @@
         <v>19</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -2330,7 +2308,7 @@
         <v>20</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -2344,7 +2322,7 @@
         <v>21</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2358,7 +2336,7 @@
         <v>22</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2372,7 +2350,7 @@
         <v>23</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2386,7 +2364,7 @@
         <v>24</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -2400,7 +2378,7 @@
         <v>25</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -2414,7 +2392,7 @@
         <v>26</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -2428,7 +2406,7 @@
         <v>28</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -2442,7 +2420,7 @@
         <v>29</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -2456,7 +2434,7 @@
         <v>30</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -2470,7 +2448,7 @@
         <v>31</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -2484,7 +2462,7 @@
         <v>32</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -2498,7 +2476,7 @@
         <v>33</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -2512,7 +2490,7 @@
         <v>34</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -2526,7 +2504,7 @@
         <v>35</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -2540,7 +2518,7 @@
         <v>36</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -2554,7 +2532,7 @@
         <v>37</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -2568,7 +2546,7 @@
         <v>38</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -2582,7 +2560,7 @@
         <v>39</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -2596,7 +2574,7 @@
         <v>40</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -2610,7 +2588,7 @@
         <v>41</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -2624,7 +2602,7 @@
         <v>42</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -2638,7 +2616,7 @@
         <v>43</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -2652,7 +2630,7 @@
         <v>44</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -2666,7 +2644,7 @@
         <v>45</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -2680,7 +2658,7 @@
         <v>46</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -2694,7 +2672,7 @@
         <v>47</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -2708,7 +2686,7 @@
         <v>48</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -2722,7 +2700,7 @@
         <v>49</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -2736,7 +2714,7 @@
         <v>50</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -2750,7 +2728,7 @@
         <v>51</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -2764,7 +2742,7 @@
         <v>52</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -2778,7 +2756,7 @@
         <v>53</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -2792,7 +2770,7 @@
         <v>54</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -2806,7 +2784,7 @@
         <v>55</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -2820,7 +2798,7 @@
         <v>56</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -2834,7 +2812,7 @@
         <v>57</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>87</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -2848,7 +2826,7 @@
         <v>58</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -2862,7 +2840,7 @@
         <v>59</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -2876,7 +2854,7 @@
         <v>61</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -2904,7 +2882,7 @@
         <v>63</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -2918,7 +2896,7 @@
         <v>64</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -2932,7 +2910,7 @@
         <v>65</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -2946,7 +2924,7 @@
         <v>66</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -2960,7 +2938,7 @@
         <v>67</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -2974,7 +2952,7 @@
         <v>68</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -2988,7 +2966,7 @@
         <v>69</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -3002,7 +2980,7 @@
         <v>70</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -3016,7 +2994,7 @@
         <v>71</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>98</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -3030,7 +3008,7 @@
         <v>72</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -3044,7 +3022,7 @@
         <v>73</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -3058,7 +3036,7 @@
         <v>74</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -3072,7 +3050,7 @@
         <v>75</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>74</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -3086,7 +3064,7 @@
         <v>76</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -3100,7 +3078,7 @@
         <v>77</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -3114,7 +3092,7 @@
         <v>78</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -3128,7 +3106,7 @@
         <v>79</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>76</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -3142,7 +3120,7 @@
         <v>81</v>
       </c>
       <c r="D76">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -3156,7 +3134,7 @@
         <v>82</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -3170,7 +3148,7 @@
         <v>83</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -3184,7 +3162,7 @@
         <v>84</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -3198,7 +3176,7 @@
         <v>85</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -3212,7 +3190,7 @@
         <v>86</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>88</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -3226,7 +3204,7 @@
         <v>87</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -3240,7 +3218,7 @@
         <v>88</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -3254,7 +3232,7 @@
         <v>89</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -3268,7 +3246,7 @@
         <v>90</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -3282,7 +3260,7 @@
         <v>91</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -3296,7 +3274,7 @@
         <v>92</v>
       </c>
       <c r="D87">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -3310,7 +3288,7 @@
         <v>94</v>
       </c>
       <c r="D88">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -3324,7 +3302,7 @@
         <v>95</v>
       </c>
       <c r="D89">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -3338,7 +3316,7 @@
         <v>96</v>
       </c>
       <c r="D90">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -3352,7 +3330,7 @@
         <v>97</v>
       </c>
       <c r="D91">
-        <v>0</v>
+        <v>63</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -3366,7 +3344,7 @@
         <v>98</v>
       </c>
       <c r="D92">
-        <v>0</v>
+        <v>91</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -3380,7 +3358,7 @@
         <v>99</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -3394,7 +3372,7 @@
         <v>100</v>
       </c>
       <c r="D94">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -3408,7 +3386,7 @@
         <v>101</v>
       </c>
       <c r="D95">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -3422,7 +3400,7 @@
         <v>102</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -3436,7 +3414,7 @@
         <v>103</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -3450,7 +3428,7 @@
         <v>104</v>
       </c>
       <c r="D98">
-        <v>0</v>
+        <v>53</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -3464,7 +3442,7 @@
         <v>106</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>89</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -3478,7 +3456,7 @@
         <v>107</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -3492,7 +3470,7 @@
         <v>108</v>
       </c>
       <c r="D101">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -3506,7 +3484,7 @@
         <v>109</v>
       </c>
       <c r="D102">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -3520,7 +3498,7 @@
         <v>110</v>
       </c>
       <c r="D103">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -3534,7 +3512,7 @@
         <v>111</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -3548,7 +3526,7 @@
         <v>112</v>
       </c>
       <c r="D105">
-        <v>0</v>
+        <v>97</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -3562,7 +3540,7 @@
         <v>113</v>
       </c>
       <c r="D106">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -3590,7 +3568,7 @@
         <v>115</v>
       </c>
       <c r="D108">
-        <v>0</v>
+        <v>53</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -3604,7 +3582,7 @@
         <v>116</v>
       </c>
       <c r="D109">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -3618,7 +3596,7 @@
         <v>117</v>
       </c>
       <c r="D110">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -3632,7 +3610,7 @@
         <v>118</v>
       </c>
       <c r="D111">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -3660,7 +3638,7 @@
         <v>120</v>
       </c>
       <c r="D113">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -3674,7 +3652,7 @@
         <v>121</v>
       </c>
       <c r="D114">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -3688,7 +3666,7 @@
         <v>122</v>
       </c>
       <c r="D115">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -3702,7 +3680,7 @@
         <v>124</v>
       </c>
       <c r="D116">
-        <v>0</v>
+        <v>74</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -3716,7 +3694,7 @@
         <v>125</v>
       </c>
       <c r="D117">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -3730,7 +3708,7 @@
         <v>126</v>
       </c>
       <c r="D118">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -3744,7 +3722,7 @@
         <v>127</v>
       </c>
       <c r="D119">
-        <v>0</v>
+        <v>91</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -3758,7 +3736,7 @@
         <v>128</v>
       </c>
       <c r="D120">
-        <v>0</v>
+        <v>77</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -3772,7 +3750,7 @@
         <v>129</v>
       </c>
       <c r="D121">
-        <v>0</v>
+        <v>68</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -3786,7 +3764,7 @@
         <v>130</v>
       </c>
       <c r="D122">
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -3800,7 +3778,7 @@
         <v>131</v>
       </c>
       <c r="D123">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -3814,7 +3792,7 @@
         <v>132</v>
       </c>
       <c r="D124">
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -3828,7 +3806,7 @@
         <v>133</v>
       </c>
       <c r="D125">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -3842,7 +3820,7 @@
         <v>135</v>
       </c>
       <c r="D126">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -3856,7 +3834,7 @@
         <v>136</v>
       </c>
       <c r="D127">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -3870,7 +3848,7 @@
         <v>137</v>
       </c>
       <c r="D128">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -3884,7 +3862,7 @@
         <v>138</v>
       </c>
       <c r="D129">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -3898,7 +3876,7 @@
         <v>139</v>
       </c>
       <c r="D130">
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -3912,7 +3890,7 @@
         <v>140</v>
       </c>
       <c r="D131">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -3926,7 +3904,7 @@
         <v>141</v>
       </c>
       <c r="D132">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -3940,7 +3918,7 @@
         <v>142</v>
       </c>
       <c r="D133">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -3954,7 +3932,7 @@
         <v>143</v>
       </c>
       <c r="D134">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -3968,7 +3946,7 @@
         <v>144</v>
       </c>
       <c r="D135">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -3982,7 +3960,7 @@
         <v>145</v>
       </c>
       <c r="D136">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -3996,7 +3974,7 @@
         <v>146</v>
       </c>
       <c r="D137">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -4010,7 +3988,7 @@
         <v>147</v>
       </c>
       <c r="D138">
-        <v>0</v>
+        <v>57</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -4024,7 +4002,7 @@
         <v>148</v>
       </c>
       <c r="D139">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -4038,7 +4016,7 @@
         <v>149</v>
       </c>
       <c r="D140">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -4052,7 +4030,7 @@
         <v>151</v>
       </c>
       <c r="D141">
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -4066,7 +4044,7 @@
         <v>152</v>
       </c>
       <c r="D142">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -4080,7 +4058,7 @@
         <v>153</v>
       </c>
       <c r="D143">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -4094,7 +4072,7 @@
         <v>154</v>
       </c>
       <c r="D144">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -4108,7 +4086,7 @@
         <v>155</v>
       </c>
       <c r="D145">
-        <v>0</v>
+        <v>87</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -4136,7 +4114,7 @@
         <v>157</v>
       </c>
       <c r="D147">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -4150,7 +4128,7 @@
         <v>159</v>
       </c>
       <c r="D148">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -4164,7 +4142,7 @@
         <v>160</v>
       </c>
       <c r="D149">
-        <v>0</v>
+        <v>77</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -4178,7 +4156,7 @@
         <v>161</v>
       </c>
       <c r="D150">
-        <v>0</v>
+        <v>73</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -4192,7 +4170,7 @@
         <v>162</v>
       </c>
       <c r="D151">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -4206,7 +4184,7 @@
         <v>163</v>
       </c>
       <c r="D152">
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -4220,7 +4198,7 @@
         <v>164</v>
       </c>
       <c r="D153">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -4234,7 +4212,7 @@
         <v>165</v>
       </c>
       <c r="D154">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -4248,7 +4226,7 @@
         <v>167</v>
       </c>
       <c r="D155">
-        <v>0</v>
+        <v>68</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -4262,7 +4240,7 @@
         <v>168</v>
       </c>
       <c r="D156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -4276,7 +4254,7 @@
         <v>169</v>
       </c>
       <c r="D157">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -4290,7 +4268,7 @@
         <v>170</v>
       </c>
       <c r="D158">
-        <v>0</v>
+        <v>73</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -4304,7 +4282,7 @@
         <v>171</v>
       </c>
       <c r="D159">
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -4318,7 +4296,7 @@
         <v>172</v>
       </c>
       <c r="D160">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -4332,7 +4310,7 @@
         <v>174</v>
       </c>
       <c r="D161">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -4346,7 +4324,7 @@
         <v>175</v>
       </c>
       <c r="D162">
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -4360,7 +4338,7 @@
         <v>176</v>
       </c>
       <c r="D163">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -4374,7 +4352,7 @@
         <v>177</v>
       </c>
       <c r="D164">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -4388,7 +4366,7 @@
         <v>178</v>
       </c>
       <c r="D165">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -4402,7 +4380,7 @@
         <v>179</v>
       </c>
       <c r="D166">
-        <v>0</v>
+        <v>83</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -4416,7 +4394,7 @@
         <v>180</v>
       </c>
       <c r="D167">
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -4430,7 +4408,7 @@
         <v>181</v>
       </c>
       <c r="D168">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -4444,7 +4422,7 @@
         <v>182</v>
       </c>
       <c r="D169">
-        <v>0</v>
+        <v>86</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -4458,7 +4436,7 @@
         <v>183</v>
       </c>
       <c r="D170">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -4472,7 +4450,7 @@
         <v>184</v>
       </c>
       <c r="D171">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -4486,7 +4464,7 @@
         <v>185</v>
       </c>
       <c r="D172">
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -4500,7 +4478,7 @@
         <v>186</v>
       </c>
       <c r="D173">
-        <v>0</v>
+        <v>92</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -4514,7 +4492,7 @@
         <v>187</v>
       </c>
       <c r="D174">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -4528,7 +4506,7 @@
         <v>188</v>
       </c>
       <c r="D175">
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -4542,7 +4520,7 @@
         <v>189</v>
       </c>
       <c r="D176">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -4556,7 +4534,7 @@
         <v>190</v>
       </c>
       <c r="D177">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -4570,7 +4548,7 @@
         <v>191</v>
       </c>
       <c r="D178">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -4584,7 +4562,7 @@
         <v>192</v>
       </c>
       <c r="D179">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -4598,7 +4576,7 @@
         <v>193</v>
       </c>
       <c r="D180">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -4612,7 +4590,7 @@
         <v>194</v>
       </c>
       <c r="D181">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -4626,7 +4604,7 @@
         <v>195</v>
       </c>
       <c r="D182">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -4640,7 +4618,7 @@
         <v>196</v>
       </c>
       <c r="D183">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -4654,7 +4632,7 @@
         <v>197</v>
       </c>
       <c r="D184">
-        <v>0</v>
+        <v>57</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -4668,7 +4646,7 @@
         <v>198</v>
       </c>
       <c r="D185">
-        <v>0</v>
+        <v>85</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -4682,7 +4660,7 @@
         <v>199</v>
       </c>
       <c r="D186">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -4696,7 +4674,7 @@
         <v>200</v>
       </c>
       <c r="D187">
-        <v>0</v>
+        <v>89</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -4710,7 +4688,7 @@
         <v>202</v>
       </c>
       <c r="D188">
-        <v>0</v>
+        <v>87</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
@@ -4724,7 +4702,7 @@
         <v>203</v>
       </c>
       <c r="D189">
-        <v>0</v>
+        <v>98</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -4738,7 +4716,7 @@
         <v>204</v>
       </c>
       <c r="D190">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -4752,7 +4730,7 @@
         <v>205</v>
       </c>
       <c r="D191">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -4766,7 +4744,7 @@
         <v>206</v>
       </c>
       <c r="D192">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -4780,7 +4758,7 @@
         <v>207</v>
       </c>
       <c r="D193">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -4794,7 +4772,7 @@
         <v>208</v>
       </c>
       <c r="D194">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -4808,7 +4786,7 @@
         <v>209</v>
       </c>
       <c r="D195">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -4822,7 +4800,7 @@
         <v>210</v>
       </c>
       <c r="D196">
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -4836,7 +4814,7 @@
         <v>211</v>
       </c>
       <c r="D197">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -4850,7 +4828,7 @@
         <v>212</v>
       </c>
       <c r="D198">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -4864,7 +4842,7 @@
         <v>213</v>
       </c>
       <c r="D199">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -4878,7 +4856,7 @@
         <v>214</v>
       </c>
       <c r="D200">
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -4892,7 +4870,7 @@
         <v>215</v>
       </c>
       <c r="D201">
-        <v>0</v>
+        <v>93</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -4906,7 +4884,7 @@
         <v>216</v>
       </c>
       <c r="D202">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -4920,7 +4898,7 @@
         <v>217</v>
       </c>
       <c r="D203">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -4934,7 +4912,7 @@
         <v>218</v>
       </c>
       <c r="D204">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -4948,7 +4926,7 @@
         <v>219</v>
       </c>
       <c r="D205">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -4962,7 +4940,7 @@
         <v>220</v>
       </c>
       <c r="D206">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -4976,7 +4954,7 @@
         <v>221</v>
       </c>
       <c r="D207">
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -4990,7 +4968,7 @@
         <v>222</v>
       </c>
       <c r="D208">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
@@ -5004,7 +4982,7 @@
         <v>223</v>
       </c>
       <c r="D209">
-        <v>0</v>
+        <v>74</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
@@ -5018,7 +4996,7 @@
         <v>224</v>
       </c>
       <c r="D210">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -5032,7 +5010,7 @@
         <v>225</v>
       </c>
       <c r="D211">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
@@ -5046,7 +5024,7 @@
         <v>226</v>
       </c>
       <c r="D212">
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -5060,7 +5038,7 @@
         <v>227</v>
       </c>
       <c r="D213">
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
@@ -5074,7 +5052,7 @@
         <v>228</v>
       </c>
       <c r="D214">
-        <v>0</v>
+        <v>88</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
@@ -5088,7 +5066,7 @@
         <v>229</v>
       </c>
       <c r="D215">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
@@ -5102,7 +5080,7 @@
         <v>230</v>
       </c>
       <c r="D216">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
@@ -5116,7 +5094,7 @@
         <v>231</v>
       </c>
       <c r="D217">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
@@ -5130,7 +5108,7 @@
         <v>232</v>
       </c>
       <c r="D218">
-        <v>0</v>
+        <v>89</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
@@ -5144,7 +5122,7 @@
         <v>233</v>
       </c>
       <c r="D219">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
@@ -5158,7 +5136,7 @@
         <v>234</v>
       </c>
       <c r="D220">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
@@ -5172,7 +5150,7 @@
         <v>235</v>
       </c>
       <c r="D221">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
@@ -5186,7 +5164,7 @@
         <v>236</v>
       </c>
       <c r="D222">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
@@ -5200,7 +5178,7 @@
         <v>238</v>
       </c>
       <c r="D223">
-        <v>0</v>
+        <v>91</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
@@ -5214,7 +5192,7 @@
         <v>239</v>
       </c>
       <c r="D224">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
@@ -5228,7 +5206,7 @@
         <v>240</v>
       </c>
       <c r="D225">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
@@ -5242,7 +5220,7 @@
         <v>241</v>
       </c>
       <c r="D226">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
@@ -5256,7 +5234,7 @@
         <v>242</v>
       </c>
       <c r="D227">
-        <v>0</v>
+        <v>61</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
@@ -5270,7 +5248,7 @@
         <v>244</v>
       </c>
       <c r="D228">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
@@ -5298,7 +5276,7 @@
         <v>246</v>
       </c>
       <c r="D230">
-        <v>0</v>
+        <v>77</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
@@ -5312,7 +5290,7 @@
         <v>247</v>
       </c>
       <c r="D231">
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
@@ -5326,7 +5304,7 @@
         <v>248</v>
       </c>
       <c r="D232">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
@@ -5340,7 +5318,7 @@
         <v>249</v>
       </c>
       <c r="D233">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
@@ -5354,7 +5332,7 @@
         <v>250</v>
       </c>
       <c r="D234">
-        <v>0</v>
+        <v>95</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
@@ -5368,7 +5346,7 @@
         <v>251</v>
       </c>
       <c r="D235">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
@@ -5382,7 +5360,7 @@
         <v>252</v>
       </c>
       <c r="D236">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
@@ -5396,7 +5374,7 @@
         <v>253</v>
       </c>
       <c r="D237">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
@@ -5410,7 +5388,7 @@
         <v>254</v>
       </c>
       <c r="D238">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
@@ -5424,7 +5402,7 @@
         <v>255</v>
       </c>
       <c r="D239">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
@@ -5438,7 +5416,7 @@
         <v>256</v>
       </c>
       <c r="D240">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
@@ -5452,7 +5430,7 @@
         <v>257</v>
       </c>
       <c r="D241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
@@ -5466,7 +5444,7 @@
         <v>258</v>
       </c>
       <c r="D242">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
@@ -5480,7 +5458,7 @@
         <v>259</v>
       </c>
       <c r="D243">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
@@ -5494,7 +5472,7 @@
         <v>260</v>
       </c>
       <c r="D244">
-        <v>0</v>
+        <v>61</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
@@ -5508,7 +5486,7 @@
         <v>261</v>
       </c>
       <c r="D245">
-        <v>0</v>
+        <v>99</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
@@ -5522,7 +5500,7 @@
         <v>262</v>
       </c>
       <c r="D246">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
@@ -5536,7 +5514,7 @@
         <v>263</v>
       </c>
       <c r="D247">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
@@ -5550,7 +5528,7 @@
         <v>264</v>
       </c>
       <c r="D248">
-        <v>0</v>
+        <v>86</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
@@ -5564,7 +5542,7 @@
         <v>265</v>
       </c>
       <c r="D249">
-        <v>0</v>
+        <v>63</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
@@ -5578,7 +5556,7 @@
         <v>266</v>
       </c>
       <c r="D250">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
@@ -5592,7 +5570,7 @@
         <v>267</v>
       </c>
       <c r="D251">
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
@@ -5620,7 +5598,7 @@
         <v>269</v>
       </c>
       <c r="D253">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
@@ -5634,7 +5612,7 @@
         <v>270</v>
       </c>
       <c r="D254">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
@@ -5648,7 +5626,7 @@
         <v>271</v>
       </c>
       <c r="D255">
-        <v>0</v>
+        <v>69</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
@@ -5662,7 +5640,7 @@
         <v>272</v>
       </c>
       <c r="D256">
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
@@ -5676,7 +5654,7 @@
         <v>273</v>
       </c>
       <c r="D257">
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
@@ -5690,7 +5668,7 @@
         <v>274</v>
       </c>
       <c r="D258">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
@@ -5704,7 +5682,7 @@
         <v>275</v>
       </c>
       <c r="D259">
-        <v>0</v>
+        <v>87</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
@@ -5718,7 +5696,7 @@
         <v>276</v>
       </c>
       <c r="D260">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
@@ -5732,7 +5710,7 @@
         <v>277</v>
       </c>
       <c r="D261">
-        <v>0</v>
+        <v>57</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
@@ -5746,7 +5724,7 @@
         <v>278</v>
       </c>
       <c r="D262">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
@@ -5760,7 +5738,7 @@
         <v>279</v>
       </c>
       <c r="D263">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
@@ -5774,7 +5752,7 @@
         <v>280</v>
       </c>
       <c r="D264">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
@@ -5788,7 +5766,7 @@
         <v>281</v>
       </c>
       <c r="D265">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
@@ -5802,7 +5780,7 @@
         <v>283</v>
       </c>
       <c r="D266">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
@@ -5816,7 +5794,7 @@
         <v>284</v>
       </c>
       <c r="D267">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
@@ -5830,7 +5808,7 @@
         <v>285</v>
       </c>
       <c r="D268">
-        <v>0</v>
+        <v>92</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
@@ -5844,7 +5822,7 @@
         <v>286</v>
       </c>
       <c r="D269">
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
@@ -5858,7 +5836,7 @@
         <v>287</v>
       </c>
       <c r="D270">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
@@ -5872,7 +5850,7 @@
         <v>288</v>
       </c>
       <c r="D271">
-        <v>0</v>
+        <v>92</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
@@ -5886,7 +5864,7 @@
         <v>289</v>
       </c>
       <c r="D272">
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
@@ -5900,7 +5878,7 @@
         <v>290</v>
       </c>
       <c r="D273">
-        <v>0</v>
+        <v>58</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
@@ -5914,7 +5892,7 @@
         <v>292</v>
       </c>
       <c r="D274">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
@@ -5928,7 +5906,7 @@
         <v>293</v>
       </c>
       <c r="D275">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
@@ -5942,7 +5920,7 @@
         <v>294</v>
       </c>
       <c r="D276">
-        <v>0</v>
+        <v>96</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
@@ -5956,7 +5934,7 @@
         <v>295</v>
       </c>
       <c r="D277">
-        <v>0</v>
+        <v>88</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
@@ -5970,7 +5948,7 @@
         <v>296</v>
       </c>
       <c r="D278">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
@@ -5984,7 +5962,7 @@
         <v>297</v>
       </c>
       <c r="D279">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
@@ -5998,7 +5976,7 @@
         <v>298</v>
       </c>
       <c r="D280">
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
@@ -6012,7 +5990,7 @@
         <v>299</v>
       </c>
       <c r="D281">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
@@ -6026,7 +6004,7 @@
         <v>300</v>
       </c>
       <c r="D282">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
@@ -6040,7 +6018,7 @@
         <v>302</v>
       </c>
       <c r="D283">
-        <v>0</v>
+        <v>89</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
@@ -6054,7 +6032,7 @@
         <v>303</v>
       </c>
       <c r="D284">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
@@ -6068,7 +6046,7 @@
         <v>304</v>
       </c>
       <c r="D285">
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
@@ -6082,7 +6060,7 @@
         <v>305</v>
       </c>
       <c r="D286">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
@@ -6096,7 +6074,7 @@
         <v>306</v>
       </c>
       <c r="D287">
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
@@ -6110,7 +6088,7 @@
         <v>307</v>
       </c>
       <c r="D288">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
@@ -6124,7 +6102,7 @@
         <v>308</v>
       </c>
       <c r="D289">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
@@ -6138,7 +6116,7 @@
         <v>309</v>
       </c>
       <c r="D290">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
@@ -6152,7 +6130,7 @@
         <v>310</v>
       </c>
       <c r="D291">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
@@ -6166,7 +6144,7 @@
         <v>311</v>
       </c>
       <c r="D292">
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
@@ -6180,7 +6158,7 @@
         <v>313</v>
       </c>
       <c r="D293">
-        <v>0</v>
+        <v>77</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
@@ -6194,7 +6172,7 @@
         <v>314</v>
       </c>
       <c r="D294">
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
@@ -6208,7 +6186,7 @@
         <v>315</v>
       </c>
       <c r="D295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
@@ -6222,7 +6200,7 @@
         <v>316</v>
       </c>
       <c r="D296">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
@@ -6236,7 +6214,7 @@
         <v>317</v>
       </c>
       <c r="D297">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
@@ -6250,7 +6228,7 @@
         <v>318</v>
       </c>
       <c r="D298">
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
@@ -6264,7 +6242,7 @@
         <v>319</v>
       </c>
       <c r="D299">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
@@ -6278,7 +6256,7 @@
         <v>320</v>
       </c>
       <c r="D300">
-        <v>0</v>
+        <v>73</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
@@ -6292,7 +6270,7 @@
         <v>321</v>
       </c>
       <c r="D301">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
@@ -6306,7 +6284,7 @@
         <v>322</v>
       </c>
       <c r="D302">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
@@ -6320,7 +6298,7 @@
         <v>323</v>
       </c>
       <c r="D303">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
@@ -6334,7 +6312,7 @@
         <v>324</v>
       </c>
       <c r="D304">
-        <v>0</v>
+        <v>69</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
@@ -6348,7 +6326,7 @@
         <v>325</v>
       </c>
       <c r="D305">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
@@ -6362,7 +6340,7 @@
         <v>326</v>
       </c>
       <c r="D306">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
@@ -6376,7 +6354,7 @@
         <v>327</v>
       </c>
       <c r="D307">
-        <v>0</v>
+        <v>87</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
@@ -6390,7 +6368,7 @@
         <v>328</v>
       </c>
       <c r="D308">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
@@ -6404,7 +6382,7 @@
         <v>329</v>
       </c>
       <c r="D309">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
@@ -6418,7 +6396,7 @@
         <v>330</v>
       </c>
       <c r="D310">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
@@ -6432,7 +6410,7 @@
         <v>331</v>
       </c>
       <c r="D311">
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
@@ -6446,7 +6424,7 @@
         <v>332</v>
       </c>
       <c r="D312">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
@@ -6460,7 +6438,7 @@
         <v>333</v>
       </c>
       <c r="D313">
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
@@ -6474,7 +6452,7 @@
         <v>334</v>
       </c>
       <c r="D314">
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
@@ -6488,7 +6466,7 @@
         <v>336</v>
       </c>
       <c r="D315">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
@@ -6502,7 +6480,7 @@
         <v>337</v>
       </c>
       <c r="D316">
-        <v>0</v>
+        <v>98</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
@@ -6516,7 +6494,7 @@
         <v>338</v>
       </c>
       <c r="D317">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
@@ -6530,7 +6508,7 @@
         <v>339</v>
       </c>
       <c r="D318">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
@@ -6544,7 +6522,7 @@
         <v>340</v>
       </c>
       <c r="D319">
-        <v>0</v>
+        <v>85</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
@@ -6558,7 +6536,7 @@
         <v>341</v>
       </c>
       <c r="D320">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
@@ -6572,7 +6550,7 @@
         <v>342</v>
       </c>
       <c r="D321">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
@@ -6586,7 +6564,7 @@
         <v>343</v>
       </c>
       <c r="D322">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
@@ -6614,7 +6592,7 @@
         <v>345</v>
       </c>
       <c r="D324">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
@@ -6628,7 +6606,7 @@
         <v>346</v>
       </c>
       <c r="D325">
-        <v>0</v>
+        <v>86</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
@@ -6642,7 +6620,7 @@
         <v>347</v>
       </c>
       <c r="D326">
-        <v>0</v>
+        <v>98</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
@@ -6656,7 +6634,7 @@
         <v>348</v>
       </c>
       <c r="D327">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
@@ -6670,7 +6648,7 @@
         <v>349</v>
       </c>
       <c r="D328">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
@@ -6684,7 +6662,7 @@
         <v>351</v>
       </c>
       <c r="D329">
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
@@ -6698,7 +6676,7 @@
         <v>352</v>
       </c>
       <c r="D330">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
@@ -6712,7 +6690,7 @@
         <v>353</v>
       </c>
       <c r="D331">
-        <v>0</v>
+        <v>58</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
@@ -6726,7 +6704,7 @@
         <v>354</v>
       </c>
       <c r="D332">
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
@@ -6740,7 +6718,7 @@
         <v>355</v>
       </c>
       <c r="D333">
-        <v>0</v>
+        <v>88</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
@@ -6754,7 +6732,7 @@
         <v>356</v>
       </c>
       <c r="D334">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
@@ -6768,7 +6746,7 @@
         <v>357</v>
       </c>
       <c r="D335">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
@@ -6782,7 +6760,7 @@
         <v>358</v>
       </c>
       <c r="D336">
-        <v>0</v>
+        <v>61</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
@@ -6796,7 +6774,7 @@
         <v>359</v>
       </c>
       <c r="D337">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
@@ -6810,7 +6788,7 @@
         <v>360</v>
       </c>
       <c r="D338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
@@ -6824,7 +6802,7 @@
         <v>361</v>
       </c>
       <c r="D339">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
@@ -6838,7 +6816,7 @@
         <v>362</v>
       </c>
       <c r="D340">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
@@ -6852,7 +6830,7 @@
         <v>363</v>
       </c>
       <c r="D341">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
@@ -6866,7 +6844,7 @@
         <v>364</v>
       </c>
       <c r="D342">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
@@ -6880,7 +6858,7 @@
         <v>366</v>
       </c>
       <c r="D343">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
@@ -6894,7 +6872,7 @@
         <v>367</v>
       </c>
       <c r="D344">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
@@ -6908,7 +6886,7 @@
         <v>368</v>
       </c>
       <c r="D345">
-        <v>0</v>
+        <v>91</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
@@ -6922,7 +6900,7 @@
         <v>369</v>
       </c>
       <c r="D346">
-        <v>0</v>
+        <v>74</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
@@ -6936,7 +6914,7 @@
         <v>370</v>
       </c>
       <c r="D347">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
@@ -6950,7 +6928,7 @@
         <v>371</v>
       </c>
       <c r="D348">
-        <v>0</v>
+        <v>76</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
@@ -6964,7 +6942,7 @@
         <v>372</v>
       </c>
       <c r="D349">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
@@ -6978,7 +6956,7 @@
         <v>373</v>
       </c>
       <c r="D350">
-        <v>0</v>
+        <v>77</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
@@ -6992,7 +6970,7 @@
         <v>374</v>
       </c>
       <c r="D351">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
@@ -7006,7 +6984,7 @@
         <v>375</v>
       </c>
       <c r="D352">
-        <v>0</v>
+        <v>53</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
@@ -7020,7 +6998,7 @@
         <v>376</v>
       </c>
       <c r="D353">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
@@ -7034,7 +7012,7 @@
         <v>377</v>
       </c>
       <c r="D354">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
@@ -7048,7 +7026,7 @@
         <v>378</v>
       </c>
       <c r="D355">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
@@ -7062,7 +7040,7 @@
         <v>380</v>
       </c>
       <c r="D356">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
@@ -7076,7 +7054,7 @@
         <v>381</v>
       </c>
       <c r="D357">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
@@ -7090,7 +7068,7 @@
         <v>382</v>
       </c>
       <c r="D358">
-        <v>0</v>
+        <v>74</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
@@ -7104,7 +7082,7 @@
         <v>383</v>
       </c>
       <c r="D359">
-        <v>0</v>
+        <v>77</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
@@ -7118,7 +7096,7 @@
         <v>384</v>
       </c>
       <c r="D360">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
@@ -7132,7 +7110,7 @@
         <v>385</v>
       </c>
       <c r="D361">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
@@ -7146,7 +7124,7 @@
         <v>386</v>
       </c>
       <c r="D362">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
@@ -7160,7 +7138,7 @@
         <v>387</v>
       </c>
       <c r="D363">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
@@ -7174,7 +7152,7 @@
         <v>388</v>
       </c>
       <c r="D364">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
@@ -7188,7 +7166,7 @@
         <v>389</v>
       </c>
       <c r="D365">
-        <v>0</v>
+        <v>89</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
@@ -7202,7 +7180,7 @@
         <v>391</v>
       </c>
       <c r="D366">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
@@ -7216,7 +7194,7 @@
         <v>392</v>
       </c>
       <c r="D367">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
@@ -7230,7 +7208,7 @@
         <v>393</v>
       </c>
       <c r="D368">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
@@ -7244,7 +7222,7 @@
         <v>394</v>
       </c>
       <c r="D369">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
@@ -7258,7 +7236,7 @@
         <v>395</v>
       </c>
       <c r="D370">
-        <v>0</v>
+        <v>57</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
@@ -7272,7 +7250,7 @@
         <v>397</v>
       </c>
       <c r="D371">
-        <v>0</v>
+        <v>91</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
@@ -7286,7 +7264,7 @@
         <v>398</v>
       </c>
       <c r="D372">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
@@ -7300,7 +7278,7 @@
         <v>399</v>
       </c>
       <c r="D373">
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
@@ -7314,7 +7292,7 @@
         <v>400</v>
       </c>
       <c r="D374">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
@@ -7328,7 +7306,7 @@
         <v>401</v>
       </c>
       <c r="D375">
-        <v>0</v>
+        <v>91</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
@@ -7342,7 +7320,7 @@
         <v>402</v>
       </c>
       <c r="D376">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
@@ -7356,7 +7334,7 @@
         <v>403</v>
       </c>
       <c r="D377">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
@@ -7370,7 +7348,7 @@
         <v>404</v>
       </c>
       <c r="D378">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
@@ -7384,7 +7362,7 @@
         <v>405</v>
       </c>
       <c r="D379">
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
@@ -7398,7 +7376,7 @@
         <v>406</v>
       </c>
       <c r="D380">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
@@ -7412,7 +7390,7 @@
         <v>407</v>
       </c>
       <c r="D381">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
@@ -7426,7 +7404,7 @@
         <v>408</v>
       </c>
       <c r="D382">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
@@ -7440,7 +7418,7 @@
         <v>409</v>
       </c>
       <c r="D383">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
@@ -7454,7 +7432,7 @@
         <v>410</v>
       </c>
       <c r="D384">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
@@ -7468,7 +7446,7 @@
         <v>411</v>
       </c>
       <c r="D385">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
@@ -7482,7 +7460,7 @@
         <v>413</v>
       </c>
       <c r="D386">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
@@ -7496,7 +7474,7 @@
         <v>414</v>
       </c>
       <c r="D387">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
@@ -7510,7 +7488,7 @@
         <v>415</v>
       </c>
       <c r="D388">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
@@ -7524,7 +7502,7 @@
         <v>416</v>
       </c>
       <c r="D389">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
@@ -7538,7 +7516,7 @@
         <v>417</v>
       </c>
       <c r="D390">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
@@ -7552,7 +7530,7 @@
         <v>418</v>
       </c>
       <c r="D391">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
@@ -7566,7 +7544,7 @@
         <v>419</v>
       </c>
       <c r="D392">
-        <v>0</v>
+        <v>85</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
@@ -7580,7 +7558,7 @@
         <v>420</v>
       </c>
       <c r="D393">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
@@ -7594,7 +7572,7 @@
         <v>421</v>
       </c>
       <c r="D394">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
@@ -7608,7 +7586,7 @@
         <v>422</v>
       </c>
       <c r="D395">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
@@ -7622,7 +7600,7 @@
         <v>423</v>
       </c>
       <c r="D396">
-        <v>0</v>
+        <v>93</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
@@ -7636,7 +7614,7 @@
         <v>424</v>
       </c>
       <c r="D397">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
@@ -7650,7 +7628,7 @@
         <v>425</v>
       </c>
       <c r="D398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
@@ -7664,7 +7642,7 @@
         <v>427</v>
       </c>
       <c r="D399">
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
@@ -7678,7 +7656,7 @@
         <v>428</v>
       </c>
       <c r="D400">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
@@ -7692,7 +7670,7 @@
         <v>429</v>
       </c>
       <c r="D401">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
@@ -7706,7 +7684,7 @@
         <v>430</v>
       </c>
       <c r="D402">
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
@@ -7720,7 +7698,7 @@
         <v>431</v>
       </c>
       <c r="D403">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
@@ -7734,7 +7712,7 @@
         <v>432</v>
       </c>
       <c r="D404">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
@@ -7748,7 +7726,7 @@
         <v>433</v>
       </c>
       <c r="D405">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
@@ -7762,7 +7740,7 @@
         <v>434</v>
       </c>
       <c r="D406">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
@@ -7776,7 +7754,7 @@
         <v>435</v>
       </c>
       <c r="D407">
-        <v>0</v>
+        <v>63</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
@@ -7790,7 +7768,7 @@
         <v>436</v>
       </c>
       <c r="D408">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
@@ -7804,7 +7782,7 @@
         <v>437</v>
       </c>
       <c r="D409">
-        <v>0</v>
+        <v>94</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
@@ -7818,7 +7796,7 @@
         <v>438</v>
       </c>
       <c r="D410">
-        <v>0</v>
+        <v>88</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
@@ -7832,7 +7810,7 @@
         <v>439</v>
       </c>
       <c r="D411">
-        <v>0</v>
+        <v>87</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
@@ -7846,7 +7824,7 @@
         <v>440</v>
       </c>
       <c r="D412">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
@@ -7860,7 +7838,7 @@
         <v>441</v>
       </c>
       <c r="D413">
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
@@ -7874,7 +7852,7 @@
         <v>442</v>
       </c>
       <c r="D414">
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
@@ -7888,7 +7866,7 @@
         <v>443</v>
       </c>
       <c r="D415">
-        <v>0</v>
+        <v>86</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
@@ -7902,7 +7880,7 @@
         <v>444</v>
       </c>
       <c r="D416">
-        <v>0</v>
+        <v>73</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
@@ -7916,7 +7894,7 @@
         <v>445</v>
       </c>
       <c r="D417">
-        <v>0</v>
+        <v>73</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
@@ -7930,7 +7908,7 @@
         <v>446</v>
       </c>
       <c r="D418">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
@@ -7944,7 +7922,7 @@
         <v>447</v>
       </c>
       <c r="D419">
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
@@ -7958,7 +7936,7 @@
         <v>448</v>
       </c>
       <c r="D420">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
@@ -7972,7 +7950,7 @@
         <v>449</v>
       </c>
       <c r="D421">
-        <v>0</v>
+        <v>93</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
@@ -7986,7 +7964,7 @@
         <v>450</v>
       </c>
       <c r="D422">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
@@ -8000,7 +7978,7 @@
         <v>452</v>
       </c>
       <c r="D423">
-        <v>0</v>
+        <v>74</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
@@ -8014,7 +7992,7 @@
         <v>453</v>
       </c>
       <c r="D424">
-        <v>0</v>
+        <v>95</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
@@ -8028,7 +8006,7 @@
         <v>454</v>
       </c>
       <c r="D425">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
@@ -8042,7 +8020,7 @@
         <v>455</v>
       </c>
       <c r="D426">
-        <v>0</v>
+        <v>91</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
@@ -8056,7 +8034,7 @@
         <v>456</v>
       </c>
       <c r="D427">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
@@ -8070,7 +8048,7 @@
         <v>457</v>
       </c>
       <c r="D428">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
@@ -8084,7 +8062,7 @@
         <v>458</v>
       </c>
       <c r="D429">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
@@ -8098,7 +8076,7 @@
         <v>459</v>
       </c>
       <c r="D430">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
@@ -8112,7 +8090,7 @@
         <v>460</v>
       </c>
       <c r="D431">
-        <v>0</v>
+        <v>82</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
@@ -8126,7 +8104,7 @@
         <v>461</v>
       </c>
       <c r="D432">
-        <v>0</v>
+        <v>93</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
@@ -8140,7 +8118,7 @@
         <v>462</v>
       </c>
       <c r="D433">
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
@@ -8154,7 +8132,7 @@
         <v>463</v>
       </c>
       <c r="D434">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
@@ -8168,7 +8146,7 @@
         <v>464</v>
       </c>
       <c r="D435">
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
@@ -8182,7 +8160,7 @@
         <v>465</v>
       </c>
       <c r="D436">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
@@ -8196,7 +8174,7 @@
         <v>466</v>
       </c>
       <c r="D437">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
@@ -8210,7 +8188,7 @@
         <v>467</v>
       </c>
       <c r="D438">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
@@ -8224,7 +8202,7 @@
         <v>468</v>
       </c>
       <c r="D439">
-        <v>0</v>
+        <v>92</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
@@ -8238,7 +8216,7 @@
         <v>470</v>
       </c>
       <c r="D440">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
@@ -8252,7 +8230,7 @@
         <v>471</v>
       </c>
       <c r="D441">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
@@ -8266,7 +8244,7 @@
         <v>472</v>
       </c>
       <c r="D442">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
@@ -8280,7 +8258,7 @@
         <v>473</v>
       </c>
       <c r="D443">
-        <v>0</v>
+        <v>98</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
@@ -8294,7 +8272,7 @@
         <v>474</v>
       </c>
       <c r="D444">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
@@ -8308,7 +8286,7 @@
         <v>475</v>
       </c>
       <c r="D445">
-        <v>0</v>
+        <v>96</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
@@ -8322,7 +8300,7 @@
         <v>477</v>
       </c>
       <c r="D446">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
@@ -8336,7 +8314,7 @@
         <v>478</v>
       </c>
       <c r="D447">
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
@@ -8350,7 +8328,7 @@
         <v>479</v>
       </c>
       <c r="D448">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.25">
@@ -8364,7 +8342,7 @@
         <v>480</v>
       </c>
       <c r="D449">
-        <v>0</v>
+        <v>63</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.25">
@@ -8378,7 +8356,7 @@
         <v>481</v>
       </c>
       <c r="D450">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.25">
@@ -8392,7 +8370,7 @@
         <v>482</v>
       </c>
       <c r="D451">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.25">
@@ -8406,7 +8384,7 @@
         <v>484</v>
       </c>
       <c r="D452">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.25">
@@ -8420,7 +8398,7 @@
         <v>485</v>
       </c>
       <c r="D453">
-        <v>0</v>
+        <v>94</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.25">
@@ -8434,7 +8412,7 @@
         <v>486</v>
       </c>
       <c r="D454">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.25">
@@ -8448,7 +8426,7 @@
         <v>487</v>
       </c>
       <c r="D455">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.25">
@@ -8462,7 +8440,7 @@
         <v>488</v>
       </c>
       <c r="D456">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.25">
@@ -8476,7 +8454,7 @@
         <v>489</v>
       </c>
       <c r="D457">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.25">
@@ -8490,7 +8468,7 @@
         <v>490</v>
       </c>
       <c r="D458">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.25">
@@ -8504,7 +8482,7 @@
         <v>491</v>
       </c>
       <c r="D459">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.25">
@@ -8518,7 +8496,7 @@
         <v>492</v>
       </c>
       <c r="D460">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.25">
@@ -8532,7 +8510,7 @@
         <v>493</v>
       </c>
       <c r="D461">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.25">
@@ -8546,7 +8524,7 @@
         <v>494</v>
       </c>
       <c r="D462">
-        <v>0</v>
+        <v>57</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.25">
@@ -8560,7 +8538,7 @@
         <v>496</v>
       </c>
       <c r="D463">
-        <v>0</v>
+        <v>68</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.25">
@@ -8574,7 +8552,7 @@
         <v>497</v>
       </c>
       <c r="D464">
-        <v>0</v>
+        <v>61</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.25">
@@ -8588,7 +8566,7 @@
         <v>498</v>
       </c>
       <c r="D465">
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.25">
@@ -8602,7 +8580,7 @@
         <v>499</v>
       </c>
       <c r="D466">
-        <v>0</v>
+        <v>96</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.25">
@@ -8616,7 +8594,7 @@
         <v>500</v>
       </c>
       <c r="D467">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.25">
@@ -8630,7 +8608,7 @@
         <v>501</v>
       </c>
       <c r="D468">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.25">
@@ -8644,7 +8622,7 @@
         <v>502</v>
       </c>
       <c r="D469">
-        <v>0</v>
+        <v>77</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
@@ -8658,7 +8636,7 @@
         <v>503</v>
       </c>
       <c r="D470">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.25">
@@ -8672,7 +8650,7 @@
         <v>504</v>
       </c>
       <c r="D471">
-        <v>0</v>
+        <v>89</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.25">
@@ -8686,7 +8664,7 @@
         <v>505</v>
       </c>
       <c r="D472">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.25">
@@ -8700,7 +8678,7 @@
         <v>507</v>
       </c>
       <c r="D473">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.25">
@@ -8714,7 +8692,7 @@
         <v>508</v>
       </c>
       <c r="D474">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.25">
@@ -8728,7 +8706,7 @@
         <v>509</v>
       </c>
       <c r="D475">
-        <v>0</v>
+        <v>99</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.25">
@@ -8742,7 +8720,7 @@
         <v>510</v>
       </c>
       <c r="D476">
-        <v>0</v>
+        <v>89</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.25">
@@ -8756,7 +8734,7 @@
         <v>511</v>
       </c>
       <c r="D477">
-        <v>0</v>
+        <v>95</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.25">
@@ -8770,7 +8748,7 @@
         <v>512</v>
       </c>
       <c r="D478">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.25">
@@ -8784,7 +8762,7 @@
         <v>513</v>
       </c>
       <c r="D479">
-        <v>0</v>
+        <v>99</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.25">
@@ -8798,7 +8776,7 @@
         <v>514</v>
       </c>
       <c r="D480">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.25">
@@ -8812,7 +8790,7 @@
         <v>515</v>
       </c>
       <c r="D481">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.25">
@@ -8826,7 +8804,7 @@
         <v>516</v>
       </c>
       <c r="D482">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.25">
@@ -8840,7 +8818,7 @@
         <v>517</v>
       </c>
       <c r="D483">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.25">
@@ -8854,7 +8832,7 @@
         <v>518</v>
       </c>
       <c r="D484">
-        <v>0</v>
+        <v>93</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.25">
@@ -8868,7 +8846,7 @@
         <v>519</v>
       </c>
       <c r="D485">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.25">
@@ -8882,7 +8860,7 @@
         <v>520</v>
       </c>
       <c r="D486">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.25">
@@ -8896,7 +8874,7 @@
         <v>521</v>
       </c>
       <c r="D487">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.25">
@@ -8910,7 +8888,7 @@
         <v>522</v>
       </c>
       <c r="D488">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.25">
@@ -8924,7 +8902,7 @@
         <v>523</v>
       </c>
       <c r="D489">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.25">
@@ -8938,7 +8916,7 @@
         <v>524</v>
       </c>
       <c r="D490">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.25">
@@ -8952,7 +8930,7 @@
         <v>525</v>
       </c>
       <c r="D491">
-        <v>0</v>
+        <v>57</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.25">
@@ -8966,7 +8944,7 @@
         <v>526</v>
       </c>
       <c r="D492">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.25">
@@ -8980,7 +8958,7 @@
         <v>527</v>
       </c>
       <c r="D493">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.25">
@@ -8994,7 +8972,7 @@
         <v>528</v>
       </c>
       <c r="D494">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.25">
@@ -9008,7 +8986,7 @@
         <v>529</v>
       </c>
       <c r="D495">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.25">
@@ -9022,7 +9000,7 @@
         <v>530</v>
       </c>
       <c r="D496">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.25">
@@ -9036,7 +9014,7 @@
         <v>531</v>
       </c>
       <c r="D497">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.25">
@@ -9050,7 +9028,7 @@
         <v>532</v>
       </c>
       <c r="D498">
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.25">
@@ -9064,7 +9042,7 @@
         <v>533</v>
       </c>
       <c r="D499">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.25">
@@ -9078,7 +9056,7 @@
         <v>534</v>
       </c>
       <c r="D500">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.25">
@@ -9092,7 +9070,7 @@
         <v>535</v>
       </c>
       <c r="D501">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.25">
@@ -9106,7 +9084,7 @@
         <v>537</v>
       </c>
       <c r="D502">
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.25">
@@ -9120,7 +9098,7 @@
         <v>538</v>
       </c>
       <c r="D503">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.25">
@@ -9134,7 +9112,7 @@
         <v>539</v>
       </c>
       <c r="D504">
-        <v>0</v>
+        <v>94</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.25">
@@ -9148,7 +9126,7 @@
         <v>540</v>
       </c>
       <c r="D505">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.25">
@@ -9162,7 +9140,7 @@
         <v>541</v>
       </c>
       <c r="D506">
-        <v>0</v>
+        <v>98</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.25">
@@ -9176,7 +9154,7 @@
         <v>542</v>
       </c>
       <c r="D507">
-        <v>0</v>
+        <v>68</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.25">
@@ -9190,7 +9168,7 @@
         <v>543</v>
       </c>
       <c r="D508">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.25">
@@ -9204,7 +9182,7 @@
         <v>544</v>
       </c>
       <c r="D509">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.25">
@@ -9218,7 +9196,7 @@
         <v>545</v>
       </c>
       <c r="D510">
-        <v>0</v>
+        <v>97</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.25">
@@ -9232,7 +9210,7 @@
         <v>546</v>
       </c>
       <c r="D511">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.25">
@@ -9246,7 +9224,7 @@
         <v>547</v>
       </c>
       <c r="D512">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.25">
@@ -9260,7 +9238,7 @@
         <v>548</v>
       </c>
       <c r="D513">
-        <v>0</v>
+        <v>58</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.25">
@@ -9274,7 +9252,7 @@
         <v>549</v>
       </c>
       <c r="D514">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
